--- a/results/ML/MLR_num_PSU_vs_Desertor/MLR_train.xlsx
+++ b/results/ML/MLR_num_PSU_vs_Desertor/MLR_train.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBFA93E-A4E0-4919-867F-2EBB9661B081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB9F26C-C1C1-4FFB-8DD0-33851335DBFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/MLR_num_PSU_vs_Desertor/MLR_train.xlsx
+++ b/results/ML/MLR_num_PSU_vs_Desertor/MLR_train.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB9F26C-C1C1-4FFB-8DD0-33851335DBFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE775AA-DD3C-4662-9302-7123DB94E544}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="train" sheetId="1" r:id="rId1"/>

--- a/results/ML/MLR_num_PSU_vs_Desertor/MLR_train.xlsx
+++ b/results/ML/MLR_num_PSU_vs_Desertor/MLR_train.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE775AA-DD3C-4662-9302-7123DB94E544}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA19A1C-5A38-4707-AC16-AD19A59EAE16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
